--- a/강의자료/2022엘리스교육스케줄.xlsx
+++ b/강의자료/2022엘리스교육스케줄.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\my-workspace\aj-hub-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\my-workspace\ai-hub-2022\강의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85160FD9-B3E5-42EB-866E-BAE4E0BA0EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460153F6-F800-41CE-B1B6-6638894FD797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="-110" windowWidth="24700" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -592,13 +592,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>44757</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
